--- a/GameConfig/cannon.xlsx
+++ b/GameConfig/cannon.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ReadMe" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,15 +30,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开炮特效音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_248011</t>
+  </si>
+  <si>
+    <t>effect_248012</t>
+  </si>
+  <si>
+    <t>加农炮id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannon_91001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannon_91002</t>
+  </si>
+  <si>
+    <t>加农炮预制体资源路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannonPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannons/Cannon_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannons/Cannon_002</t>
+  </si>
+  <si>
+    <t>bullet_89001</t>
+  </si>
+  <si>
+    <t>bullet_89002</t>
+  </si>
+  <si>
+    <t>炮弹id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第一行写字段注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第二行写字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一行的作用是固定的不可更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -47,7 +106,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -58,7 +117,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -71,65 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开炮特效音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gunSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_248011</t>
-  </si>
-  <si>
-    <t>effect_248012</t>
-  </si>
-  <si>
-    <t>加农炮id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cannon_91001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cannon_91002</t>
-  </si>
-  <si>
-    <t>加农炮预制体资源路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cannonPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cannons/Cannon_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cannons/Cannon_002</t>
-  </si>
-  <si>
-    <t>bullet_89001</t>
-  </si>
-  <si>
-    <t>bullet_89002</t>
-  </si>
-  <si>
-    <t>炮弹id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
+    <t>每一行的作用是固定的不可更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +162,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -171,16 +188,8 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -207,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -248,19 +257,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thin">
@@ -389,50 +385,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,112 +719,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="5" customWidth="1"/>
-    <col min="2" max="3" width="17" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="3" customWidth="1"/>
+    <col min="2" max="3" width="17" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="59.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F3:F4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="89.375" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="89.375" style="16"/>
+    <col min="2" max="16384" width="89.375" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+    </row>
+    <row r="5" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>